--- a/Code/Results/Cases/Case_1_211/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_211/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9808131796896036</v>
+        <v>1.020519786208548</v>
       </c>
       <c r="D2">
-        <v>1.036904474090187</v>
+        <v>1.032980814537891</v>
       </c>
       <c r="E2">
-        <v>0.9984006614323263</v>
+        <v>1.030862505864558</v>
       </c>
       <c r="F2">
-        <v>1.006163133534839</v>
+        <v>1.040391049643465</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049556301518787</v>
+        <v>1.032242934973097</v>
       </c>
       <c r="J2">
-        <v>1.003583311664485</v>
+        <v>1.025716435313205</v>
       </c>
       <c r="K2">
-        <v>1.047872542024302</v>
+        <v>1.035784480774071</v>
       </c>
       <c r="L2">
-        <v>1.009882322642444</v>
+        <v>1.033672288707147</v>
       </c>
       <c r="M2">
-        <v>1.017537268727044</v>
+        <v>1.043173531642934</v>
       </c>
       <c r="N2">
-        <v>1.004971845406944</v>
+        <v>1.012598234192461</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9854191578099675</v>
+        <v>1.021505472363392</v>
       </c>
       <c r="D3">
-        <v>1.038827964003321</v>
+        <v>1.033373492209532</v>
       </c>
       <c r="E3">
-        <v>1.002264359785111</v>
+        <v>1.031742273614255</v>
       </c>
       <c r="F3">
-        <v>1.010475761361492</v>
+        <v>1.041367336713423</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050091165232211</v>
+        <v>1.032284454184902</v>
       </c>
       <c r="J3">
-        <v>1.006315360693555</v>
+        <v>1.026339155371382</v>
       </c>
       <c r="K3">
-        <v>1.048987015909813</v>
+        <v>1.035987156426971</v>
       </c>
       <c r="L3">
-        <v>1.012868349461921</v>
+        <v>1.034360308545783</v>
       </c>
       <c r="M3">
-        <v>1.020976334839439</v>
+        <v>1.043959796009926</v>
       </c>
       <c r="N3">
-        <v>1.005917181001199</v>
+        <v>1.012809391485004</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9883400704141511</v>
+        <v>1.022143964655388</v>
       </c>
       <c r="D4">
-        <v>1.040048621949321</v>
+        <v>1.033627238479311</v>
       </c>
       <c r="E4">
-        <v>1.004720358998015</v>
+        <v>1.032312414024458</v>
       </c>
       <c r="F4">
-        <v>1.01321489538426</v>
+        <v>1.041999742801965</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0504181512871</v>
+        <v>1.032309714103485</v>
       </c>
       <c r="J4">
-        <v>1.008046815434398</v>
+        <v>1.026742215390544</v>
       </c>
       <c r="K4">
-        <v>1.049686577861272</v>
+        <v>1.036117218494523</v>
       </c>
       <c r="L4">
-        <v>1.01476214534742</v>
+        <v>1.034805740158838</v>
       </c>
       <c r="M4">
-        <v>1.023156402264584</v>
+        <v>1.044468628855964</v>
       </c>
       <c r="N4">
-        <v>1.006515635201012</v>
+        <v>1.012945932868433</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9895543220611898</v>
+        <v>1.02241255076789</v>
       </c>
       <c r="D5">
-        <v>1.040556124548168</v>
+        <v>1.033733829183337</v>
       </c>
       <c r="E5">
-        <v>1.005742680912153</v>
+        <v>1.0325523086064</v>
       </c>
       <c r="F5">
-        <v>1.014354534107613</v>
+        <v>1.042265768498901</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050551079610929</v>
+        <v>1.032319948025109</v>
       </c>
       <c r="J5">
-        <v>1.008766301660566</v>
+        <v>1.026911689447251</v>
       </c>
       <c r="K5">
-        <v>1.049975561138388</v>
+        <v>1.036171635829165</v>
       </c>
       <c r="L5">
-        <v>1.015549413564241</v>
+        <v>1.034993055356412</v>
       </c>
       <c r="M5">
-        <v>1.024062410040261</v>
+        <v>1.044682557038304</v>
       </c>
       <c r="N5">
-        <v>1.006764151004197</v>
+        <v>1.013003312605867</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9897574119466337</v>
+        <v>1.022457657154381</v>
       </c>
       <c r="D6">
-        <v>1.040641006597339</v>
+        <v>1.033751721226819</v>
       </c>
       <c r="E6">
-        <v>1.005913746738068</v>
+        <v>1.032592600099396</v>
       </c>
       <c r="F6">
-        <v>1.014545198814494</v>
+        <v>1.042310444854889</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050573133881468</v>
+        <v>1.032321643721763</v>
       </c>
       <c r="J6">
-        <v>1.00888662107807</v>
+        <v>1.026940146485414</v>
       </c>
       <c r="K6">
-        <v>1.050023784390712</v>
+        <v>1.036180757402142</v>
       </c>
       <c r="L6">
-        <v>1.015681086890574</v>
+        <v>1.035024509644194</v>
       </c>
       <c r="M6">
-        <v>1.024213926949723</v>
+        <v>1.044718477356461</v>
       </c>
       <c r="N6">
-        <v>1.006805700310614</v>
+        <v>1.013012945600639</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9883563484463185</v>
+        <v>1.022147552872711</v>
       </c>
       <c r="D7">
-        <v>1.040055425372006</v>
+        <v>1.033628663083328</v>
       </c>
       <c r="E7">
-        <v>1.00473405883615</v>
+        <v>1.032315618693528</v>
       </c>
       <c r="F7">
-        <v>1.013230169485658</v>
+        <v>1.042003296814807</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050419945258794</v>
+        <v>1.032309852364964</v>
       </c>
       <c r="J7">
-        <v>1.008056461947514</v>
+        <v>1.026744479803571</v>
       </c>
       <c r="K7">
-        <v>1.049690459289562</v>
+        <v>1.036117946648213</v>
       </c>
       <c r="L7">
-        <v>1.014772699382499</v>
+        <v>1.034808242855803</v>
       </c>
       <c r="M7">
-        <v>1.023168549177904</v>
+        <v>1.044471487318009</v>
       </c>
       <c r="N7">
-        <v>1.006518967838112</v>
+        <v>1.012946699667204</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9823824351479875</v>
+        <v>1.020852760745264</v>
       </c>
       <c r="D8">
-        <v>1.037559536301363</v>
+        <v>1.033113591353271</v>
       </c>
       <c r="E8">
-        <v>0.9997157708250719</v>
+        <v>1.031159646269525</v>
       </c>
       <c r="F8">
-        <v>1.007631512300419</v>
+        <v>1.040720848181848</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049741040673531</v>
+        <v>1.032257298522637</v>
       </c>
       <c r="J8">
-        <v>1.004514327952661</v>
+        <v>1.02592686148736</v>
       </c>
       <c r="K8">
-        <v>1.048253684213131</v>
+        <v>1.03585319918219</v>
       </c>
       <c r="L8">
-        <v>1.010899593552128</v>
+        <v>1.033904758644544</v>
       </c>
       <c r="M8">
-        <v>1.018709092749558</v>
+        <v>1.043439238701704</v>
       </c>
       <c r="N8">
-        <v>1.005294126794816</v>
+        <v>1.01266961452193</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9713746862070758</v>
+        <v>1.018576463991058</v>
       </c>
       <c r="D9">
-        <v>1.032974296790955</v>
+        <v>1.032203445348818</v>
       </c>
       <c r="E9">
-        <v>0.9905177525359719</v>
+        <v>1.029129404054509</v>
       </c>
       <c r="F9">
-        <v>0.9973522530794423</v>
+        <v>1.038466300984338</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048396583515668</v>
+        <v>1.032152433975761</v>
       </c>
       <c r="J9">
-        <v>0.9979804123087467</v>
+        <v>1.024487053994128</v>
       </c>
       <c r="K9">
-        <v>1.045554120074546</v>
+        <v>1.035378457918984</v>
       </c>
       <c r="L9">
-        <v>1.003766569117036</v>
+        <v>1.032314558708309</v>
       </c>
       <c r="M9">
-        <v>1.010488434697607</v>
+        <v>1.041620854305389</v>
       </c>
       <c r="N9">
-        <v>1.003029834593906</v>
+        <v>1.012180669879588</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9636747028935669</v>
+        <v>1.017062526554289</v>
       </c>
       <c r="D10">
-        <v>1.029786339189438</v>
+        <v>1.031595118061086</v>
       </c>
       <c r="E10">
-        <v>0.9841207609242935</v>
+        <v>1.027780502003229</v>
       </c>
       <c r="F10">
-        <v>0.9901917217963231</v>
+        <v>1.036966906323638</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047397957376448</v>
+        <v>1.032074337206308</v>
       </c>
       <c r="J10">
-        <v>0.9934075431692571</v>
+        <v>1.023527858083324</v>
       </c>
       <c r="K10">
-        <v>1.04363784166755</v>
+        <v>1.0350565289377</v>
       </c>
       <c r="L10">
-        <v>0.9987827633823344</v>
+        <v>1.031255727238729</v>
       </c>
       <c r="M10">
-        <v>1.004740355063672</v>
+        <v>1.040409053809095</v>
       </c>
       <c r="N10">
-        <v>1.001442269333927</v>
+        <v>1.01185426684906</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9602455097337468</v>
+        <v>1.016407834258291</v>
       </c>
       <c r="D11">
-        <v>1.028373554795436</v>
+        <v>1.031331363122159</v>
       </c>
       <c r="E11">
-        <v>0.9812816041746378</v>
+        <v>1.02719751604596</v>
       </c>
       <c r="F11">
-        <v>0.9870110031570478</v>
+        <v>1.036318530867864</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046940606593302</v>
+        <v>1.032038590045243</v>
       </c>
       <c r="J11">
-        <v>0.9913710240985226</v>
+        <v>1.023112684820755</v>
       </c>
       <c r="K11">
-        <v>1.042779515927246</v>
+        <v>1.034915860819369</v>
       </c>
       <c r="L11">
-        <v>0.9965653712789646</v>
+        <v>1.030797561586085</v>
       </c>
       <c r="M11">
-        <v>1.002182101662293</v>
+        <v>1.039884453977792</v>
       </c>
       <c r="N11">
-        <v>1.000734677284389</v>
+        <v>1.011712830674984</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9589566169551519</v>
+        <v>1.016164780977741</v>
       </c>
       <c r="D12">
-        <v>1.027843804820198</v>
+        <v>1.031233343229412</v>
       </c>
       <c r="E12">
-        <v>0.9802160324049071</v>
+        <v>1.026981135108032</v>
       </c>
       <c r="F12">
-        <v>0.985816841246331</v>
+        <v>1.036077827692512</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046766917593196</v>
+        <v>1.032025022792516</v>
       </c>
       <c r="J12">
-        <v>0.9906056332388802</v>
+        <v>1.022958496437086</v>
       </c>
       <c r="K12">
-        <v>1.042456320750196</v>
+        <v>1.034863421092832</v>
       </c>
       <c r="L12">
-        <v>0.9957323374611275</v>
+        <v>1.030627426717062</v>
       </c>
       <c r="M12">
-        <v>1.001220907899521</v>
+        <v>1.039689613111889</v>
       </c>
       <c r="N12">
-        <v>1.000468664170982</v>
+        <v>1.011660280064749</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9592337883203295</v>
+        <v>1.016216910904582</v>
       </c>
       <c r="D13">
-        <v>1.027957665204931</v>
+        <v>1.031254371035287</v>
       </c>
       <c r="E13">
-        <v>0.9804451079708663</v>
+        <v>1.027027542023833</v>
       </c>
       <c r="F13">
-        <v>0.9860735788712529</v>
+        <v>1.036129453331565</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046804347856928</v>
+        <v>1.032027946085112</v>
       </c>
       <c r="J13">
-        <v>0.9907702243144648</v>
+        <v>1.022991569206139</v>
       </c>
       <c r="K13">
-        <v>1.042525846574641</v>
+        <v>1.034874678134057</v>
       </c>
       <c r="L13">
-        <v>0.9959114592303002</v>
+        <v>1.030663919026335</v>
       </c>
       <c r="M13">
-        <v>1.00142759147049</v>
+        <v>1.039731406266291</v>
       </c>
       <c r="N13">
-        <v>1.000525871441186</v>
+        <v>1.011671553018747</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9601392834452566</v>
+        <v>1.016387740772252</v>
       </c>
       <c r="D14">
-        <v>1.028329867750574</v>
+        <v>1.031323261765111</v>
       </c>
       <c r="E14">
-        <v>0.9811937512391756</v>
+        <v>1.027179626537261</v>
       </c>
       <c r="F14">
-        <v>0.986912556434319</v>
+        <v>1.036298631561239</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046926327471761</v>
+        <v>1.032037474465559</v>
       </c>
       <c r="J14">
-        <v>0.9913079417292285</v>
+        <v>1.023099939037726</v>
       </c>
       <c r="K14">
-        <v>1.042752890256788</v>
+        <v>1.034911529988205</v>
       </c>
       <c r="L14">
-        <v>0.9964967069836629</v>
+        <v>1.030783497195301</v>
       </c>
       <c r="M14">
-        <v>1.002102875569706</v>
+        <v>1.039868347979315</v>
       </c>
       <c r="N14">
-        <v>1.0007127543869</v>
+        <v>1.011708487127541</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9606951562468445</v>
+        <v>1.016493011745933</v>
       </c>
       <c r="D15">
-        <v>1.02855853073278</v>
+        <v>1.031365701118141</v>
       </c>
       <c r="E15">
-        <v>0.981653541627199</v>
+        <v>1.027273352855849</v>
       </c>
       <c r="F15">
-        <v>0.9874277746787635</v>
+        <v>1.036402885426508</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047000976549189</v>
+        <v>1.03204330692505</v>
       </c>
       <c r="J15">
-        <v>0.9916380486758865</v>
+        <v>1.023166712660531</v>
       </c>
       <c r="K15">
-        <v>1.042892197084954</v>
+        <v>1.034934210591943</v>
       </c>
       <c r="L15">
-        <v>0.9968560376191146</v>
+        <v>1.030857179672124</v>
       </c>
       <c r="M15">
-        <v>1.002517473537838</v>
+        <v>1.039952724823852</v>
       </c>
       <c r="N15">
-        <v>1.000827472762863</v>
+        <v>1.011731241484159</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.963900212793927</v>
+        <v>1.017105994331214</v>
       </c>
       <c r="D16">
-        <v>1.02987940923811</v>
+        <v>1.031612615531139</v>
       </c>
       <c r="E16">
-        <v>0.9843076792039291</v>
+        <v>1.027819216079842</v>
       </c>
       <c r="F16">
-        <v>0.9904010715820485</v>
+        <v>1.037009955355459</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047427779630115</v>
+        <v>1.032076669026622</v>
       </c>
       <c r="J16">
-        <v>0.9935414728270143</v>
+        <v>1.0235554152974</v>
       </c>
       <c r="K16">
-        <v>1.043694197104875</v>
+        <v>1.035065837980318</v>
       </c>
       <c r="L16">
-        <v>0.9989286336593212</v>
+        <v>1.031286140903085</v>
       </c>
       <c r="M16">
-        <v>1.004908633224819</v>
+        <v>1.040443872353861</v>
       </c>
       <c r="N16">
-        <v>1.001488792270598</v>
+        <v>1.011863651391862</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9658846267568639</v>
+        <v>1.017490730725385</v>
       </c>
       <c r="D17">
-        <v>1.030699214052874</v>
+        <v>1.031767407624226</v>
       </c>
       <c r="E17">
-        <v>0.98595361891987</v>
+        <v>1.028161916284064</v>
       </c>
       <c r="F17">
-        <v>0.9922442303868575</v>
+        <v>1.037390988733577</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047688782758288</v>
+        <v>1.032097079918186</v>
       </c>
       <c r="J17">
-        <v>0.9947200176573311</v>
+        <v>1.023799282817393</v>
       </c>
       <c r="K17">
-        <v>1.044189565778309</v>
+        <v>1.035148065275094</v>
       </c>
       <c r="L17">
-        <v>1.000212497552853</v>
+        <v>1.03155530199841</v>
       </c>
       <c r="M17">
-        <v>1.006389626773814</v>
+        <v>1.040751988585226</v>
       </c>
       <c r="N17">
-        <v>1.001898117476305</v>
+        <v>1.011946681686996</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9670329921231042</v>
+        <v>1.017715223185337</v>
       </c>
       <c r="D18">
-        <v>1.031174276414034</v>
+        <v>1.031857661772179</v>
       </c>
       <c r="E18">
-        <v>0.9869070307589163</v>
+        <v>1.028361913336429</v>
       </c>
       <c r="F18">
-        <v>0.9933116261375187</v>
+        <v>1.03761332313734</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047838619602594</v>
+        <v>1.03210879889648</v>
       </c>
       <c r="J18">
-        <v>0.9954020302374211</v>
+        <v>1.023941542480422</v>
       </c>
       <c r="K18">
-        <v>1.044475755773022</v>
+        <v>1.035195904350318</v>
       </c>
       <c r="L18">
-        <v>1.000955659038025</v>
+        <v>1.031712329480447</v>
       </c>
       <c r="M18">
-        <v>1.007246817062217</v>
+        <v>1.040931718855321</v>
       </c>
       <c r="N18">
-        <v>1.00213493507996</v>
+        <v>1.011995102037021</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9674230348869937</v>
+        <v>1.017791783245558</v>
       </c>
       <c r="D19">
-        <v>1.031335735265012</v>
+        <v>1.031888430358526</v>
       </c>
       <c r="E19">
-        <v>0.9872310108714502</v>
+        <v>1.028430125078211</v>
       </c>
       <c r="F19">
-        <v>0.9936742957915741</v>
+        <v>1.03768914764604</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0478893045017</v>
+        <v>1.032112763129473</v>
       </c>
       <c r="J19">
-        <v>0.9956336741940645</v>
+        <v>1.023990052019513</v>
       </c>
       <c r="K19">
-        <v>1.044572875133737</v>
+        <v>1.035212195375624</v>
       </c>
       <c r="L19">
-        <v>1.001208105897403</v>
+        <v>1.031765876918391</v>
       </c>
       <c r="M19">
-        <v>1.007537984740219</v>
+        <v>1.04099300411126</v>
       </c>
       <c r="N19">
-        <v>1.002215360022</v>
+        <v>1.012011610449941</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9656726661769337</v>
+        <v>1.017449443642293</v>
       </c>
       <c r="D20">
-        <v>1.030611579857529</v>
+        <v>1.031750803342004</v>
       </c>
       <c r="E20">
-        <v>0.9857777157431441</v>
+        <v>1.028125136841775</v>
       </c>
       <c r="F20">
-        <v>0.9920472766643076</v>
+        <v>1.037350098751992</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047661028461958</v>
+        <v>1.032094909291128</v>
       </c>
       <c r="J20">
-        <v>0.9945941340152743</v>
+        <v>1.023773116494567</v>
       </c>
       <c r="K20">
-        <v>1.044136702457094</v>
+        <v>1.035139255746011</v>
       </c>
       <c r="L20">
-        <v>1.000075343458291</v>
+        <v>1.031526420412638</v>
       </c>
       <c r="M20">
-        <v>1.006231421571746</v>
+        <v>1.040718929453774</v>
       </c>
       <c r="N20">
-        <v>1.001854401953044</v>
+        <v>1.011937774335059</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9598730627848155</v>
+        <v>1.016337432080374</v>
       </c>
       <c r="D21">
-        <v>1.028220401772697</v>
+        <v>1.031302976512071</v>
       </c>
       <c r="E21">
-        <v>0.9809736025204424</v>
+        <v>1.027134836847198</v>
       </c>
       <c r="F21">
-        <v>0.98666585459147</v>
+        <v>1.036248809125791</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046890513167547</v>
+        <v>1.032034676570127</v>
       </c>
       <c r="J21">
-        <v>0.9911498479031977</v>
+        <v>1.023068026115326</v>
       </c>
       <c r="K21">
-        <v>1.042686153011263</v>
+        <v>1.034900683249211</v>
       </c>
       <c r="L21">
-        <v>0.9963246294655157</v>
+        <v>1.030748283065862</v>
       </c>
       <c r="M21">
-        <v>1.001904327831014</v>
+        <v>1.039828021527693</v>
       </c>
       <c r="N21">
-        <v>1.000657811131949</v>
+        <v>1.011697611362189</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9561385671268171</v>
+        <v>1.015639010498192</v>
       </c>
       <c r="D22">
-        <v>1.026688105215297</v>
+        <v>1.031021124371151</v>
       </c>
       <c r="E22">
-        <v>0.9778892046745915</v>
+        <v>1.026513156935678</v>
       </c>
       <c r="F22">
-        <v>0.9832084941845568</v>
+        <v>1.035557150928808</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046383990765585</v>
+        <v>1.031995133291246</v>
       </c>
       <c r="J22">
-        <v>0.9889323302052754</v>
+        <v>1.022624855401611</v>
       </c>
       <c r="K22">
-        <v>1.041748778859347</v>
+        <v>1.034749588660972</v>
       </c>
       <c r="L22">
-        <v>0.9939117853368231</v>
+        <v>1.030259316849959</v>
       </c>
       <c r="M22">
-        <v>0.9991200981052388</v>
+        <v>1.039267982108155</v>
       </c>
       <c r="N22">
-        <v>0.9998869737653896</v>
+        <v>1.011546525224518</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9581269439221094</v>
+        <v>1.016009186282954</v>
       </c>
       <c r="D23">
-        <v>1.027503180866518</v>
+        <v>1.031170565835241</v>
       </c>
       <c r="E23">
-        <v>0.9795305614043154</v>
+        <v>1.026842629755884</v>
       </c>
       <c r="F23">
-        <v>0.9850485382499155</v>
+        <v>1.03592373896114</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046654621490617</v>
+        <v>1.032016254170834</v>
       </c>
       <c r="J23">
-        <v>0.9901129651263586</v>
+        <v>1.022859774364986</v>
       </c>
       <c r="K23">
-        <v>1.042248131261104</v>
+        <v>1.034829789986848</v>
       </c>
       <c r="L23">
-        <v>0.9951962250635826</v>
+        <v>1.03051850029545</v>
       </c>
       <c r="M23">
-        <v>1.000602289052815</v>
+        <v>1.039564858805098</v>
       </c>
       <c r="N23">
-        <v>1.000297415951453</v>
+        <v>1.011626626899117</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9657684701283136</v>
+        <v>1.017468099243855</v>
       </c>
       <c r="D24">
-        <v>1.030651187599707</v>
+        <v>1.031758306206106</v>
       </c>
       <c r="E24">
-        <v>0.9858572192849178</v>
+        <v>1.028141755561706</v>
       </c>
       <c r="F24">
-        <v>0.9921362952830084</v>
+        <v>1.037368574914868</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047673576851892</v>
+        <v>1.032095890679959</v>
       </c>
       <c r="J24">
-        <v>0.9946510321079673</v>
+        <v>1.023784939880549</v>
       </c>
       <c r="K24">
-        <v>1.044160597609622</v>
+        <v>1.035143236772371</v>
       </c>
       <c r="L24">
-        <v>1.000137335053352</v>
+        <v>1.031539470664274</v>
       </c>
       <c r="M24">
-        <v>1.006302928198893</v>
+        <v>1.040733867417468</v>
       </c>
       <c r="N24">
-        <v>1.001874161084537</v>
+        <v>1.011941799214343</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9742812146637616</v>
+        <v>1.019164310461786</v>
       </c>
       <c r="D25">
-        <v>1.034182398465997</v>
+        <v>1.03243902517613</v>
       </c>
       <c r="E25">
-        <v>0.9929403419643086</v>
+        <v>1.029653465856748</v>
       </c>
       <c r="F25">
-        <v>1.000061639201387</v>
+        <v>1.039048520278525</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048761981598775</v>
+        <v>1.032180990974834</v>
       </c>
       <c r="J25">
-        <v>0.9997062386448236</v>
+        <v>1.024859162826588</v>
       </c>
       <c r="K25">
-        <v>1.046272278248479</v>
+        <v>1.035502154646068</v>
       </c>
       <c r="L25">
-        <v>1.005649247606716</v>
+        <v>1.032725438074517</v>
       </c>
       <c r="M25">
-        <v>1.012658998375974</v>
+        <v>1.042090875261709</v>
       </c>
       <c r="N25">
-        <v>1.003628437479128</v>
+        <v>1.012307152852026</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_211/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_211/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020519786208548</v>
+        <v>0.980813179689604</v>
       </c>
       <c r="D2">
-        <v>1.032980814537891</v>
+        <v>1.036904474090187</v>
       </c>
       <c r="E2">
-        <v>1.030862505864558</v>
+        <v>0.998400661432327</v>
       </c>
       <c r="F2">
-        <v>1.040391049643465</v>
+        <v>1.00616313353484</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032242934973097</v>
+        <v>1.049556301518787</v>
       </c>
       <c r="J2">
-        <v>1.025716435313205</v>
+        <v>1.003583311664485</v>
       </c>
       <c r="K2">
-        <v>1.035784480774071</v>
+        <v>1.047872542024302</v>
       </c>
       <c r="L2">
-        <v>1.033672288707147</v>
+        <v>1.009882322642445</v>
       </c>
       <c r="M2">
-        <v>1.043173531642934</v>
+        <v>1.017537268727044</v>
       </c>
       <c r="N2">
-        <v>1.012598234192461</v>
+        <v>1.004971845406944</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021505472363392</v>
+        <v>0.9854191578099676</v>
       </c>
       <c r="D3">
-        <v>1.033373492209532</v>
+        <v>1.038827964003321</v>
       </c>
       <c r="E3">
-        <v>1.031742273614255</v>
+        <v>1.002264359785112</v>
       </c>
       <c r="F3">
-        <v>1.041367336713423</v>
+        <v>1.010475761361493</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032284454184902</v>
+        <v>1.050091165232212</v>
       </c>
       <c r="J3">
-        <v>1.026339155371382</v>
+        <v>1.006315360693556</v>
       </c>
       <c r="K3">
-        <v>1.035987156426971</v>
+        <v>1.048987015909814</v>
       </c>
       <c r="L3">
-        <v>1.034360308545783</v>
+        <v>1.012868349461922</v>
       </c>
       <c r="M3">
-        <v>1.043959796009926</v>
+        <v>1.020976334839439</v>
       </c>
       <c r="N3">
-        <v>1.012809391485004</v>
+        <v>1.005917181001199</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022143964655388</v>
+        <v>0.9883400704141508</v>
       </c>
       <c r="D4">
-        <v>1.033627238479311</v>
+        <v>1.040048621949321</v>
       </c>
       <c r="E4">
-        <v>1.032312414024458</v>
+        <v>1.004720358998014</v>
       </c>
       <c r="F4">
-        <v>1.041999742801965</v>
+        <v>1.01321489538426</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032309714103485</v>
+        <v>1.0504181512871</v>
       </c>
       <c r="J4">
-        <v>1.026742215390544</v>
+        <v>1.008046815434397</v>
       </c>
       <c r="K4">
-        <v>1.036117218494523</v>
+        <v>1.049686577861271</v>
       </c>
       <c r="L4">
-        <v>1.034805740158838</v>
+        <v>1.014762145347419</v>
       </c>
       <c r="M4">
-        <v>1.044468628855964</v>
+        <v>1.023156402264584</v>
       </c>
       <c r="N4">
-        <v>1.012945932868433</v>
+        <v>1.006515635201011</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02241255076789</v>
+        <v>0.9895543220611901</v>
       </c>
       <c r="D5">
-        <v>1.033733829183337</v>
+        <v>1.040556124548169</v>
       </c>
       <c r="E5">
-        <v>1.0325523086064</v>
+        <v>1.005742680912153</v>
       </c>
       <c r="F5">
-        <v>1.042265768498901</v>
+        <v>1.014354534107614</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032319948025109</v>
+        <v>1.050551079610929</v>
       </c>
       <c r="J5">
-        <v>1.026911689447251</v>
+        <v>1.008766301660567</v>
       </c>
       <c r="K5">
-        <v>1.036171635829165</v>
+        <v>1.049975561138389</v>
       </c>
       <c r="L5">
-        <v>1.034993055356412</v>
+        <v>1.015549413564241</v>
       </c>
       <c r="M5">
-        <v>1.044682557038304</v>
+        <v>1.024062410040261</v>
       </c>
       <c r="N5">
-        <v>1.013003312605867</v>
+        <v>1.006764151004197</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022457657154381</v>
+        <v>0.9897574119466338</v>
       </c>
       <c r="D6">
-        <v>1.033751721226819</v>
+        <v>1.040641006597339</v>
       </c>
       <c r="E6">
-        <v>1.032592600099396</v>
+        <v>1.005913746738069</v>
       </c>
       <c r="F6">
-        <v>1.042310444854889</v>
+        <v>1.014545198814494</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032321643721763</v>
+        <v>1.050573133881468</v>
       </c>
       <c r="J6">
-        <v>1.026940146485414</v>
+        <v>1.00888662107807</v>
       </c>
       <c r="K6">
-        <v>1.036180757402142</v>
+        <v>1.050023784390712</v>
       </c>
       <c r="L6">
-        <v>1.035024509644194</v>
+        <v>1.015681086890574</v>
       </c>
       <c r="M6">
-        <v>1.044718477356461</v>
+        <v>1.024213926949723</v>
       </c>
       <c r="N6">
-        <v>1.013012945600639</v>
+        <v>1.006805700310614</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022147552872711</v>
+        <v>0.9883563484463194</v>
       </c>
       <c r="D7">
-        <v>1.033628663083328</v>
+        <v>1.040055425372006</v>
       </c>
       <c r="E7">
-        <v>1.032315618693528</v>
+        <v>1.004734058836151</v>
       </c>
       <c r="F7">
-        <v>1.042003296814807</v>
+        <v>1.013230169485659</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032309852364964</v>
+        <v>1.050419945258794</v>
       </c>
       <c r="J7">
-        <v>1.026744479803571</v>
+        <v>1.008056461947515</v>
       </c>
       <c r="K7">
-        <v>1.036117946648213</v>
+        <v>1.049690459289562</v>
       </c>
       <c r="L7">
-        <v>1.034808242855803</v>
+        <v>1.0147726993825</v>
       </c>
       <c r="M7">
-        <v>1.044471487318009</v>
+        <v>1.023168549177905</v>
       </c>
       <c r="N7">
-        <v>1.012946699667204</v>
+        <v>1.006518967838112</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020852760745264</v>
+        <v>0.9823824351479875</v>
       </c>
       <c r="D8">
-        <v>1.033113591353271</v>
+        <v>1.037559536301363</v>
       </c>
       <c r="E8">
-        <v>1.031159646269525</v>
+        <v>0.9997157708250718</v>
       </c>
       <c r="F8">
-        <v>1.040720848181848</v>
+        <v>1.007631512300419</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032257298522637</v>
+        <v>1.049741040673531</v>
       </c>
       <c r="J8">
-        <v>1.02592686148736</v>
+        <v>1.004514327952661</v>
       </c>
       <c r="K8">
-        <v>1.03585319918219</v>
+        <v>1.048253684213131</v>
       </c>
       <c r="L8">
-        <v>1.033904758644544</v>
+        <v>1.010899593552128</v>
       </c>
       <c r="M8">
-        <v>1.043439238701704</v>
+        <v>1.018709092749558</v>
       </c>
       <c r="N8">
-        <v>1.01266961452193</v>
+        <v>1.005294126794816</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018576463991058</v>
+        <v>0.9713746862070758</v>
       </c>
       <c r="D9">
-        <v>1.032203445348818</v>
+        <v>1.032974296790955</v>
       </c>
       <c r="E9">
-        <v>1.029129404054509</v>
+        <v>0.9905177525359716</v>
       </c>
       <c r="F9">
-        <v>1.038466300984338</v>
+        <v>0.997352253079442</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032152433975761</v>
+        <v>1.048396583515668</v>
       </c>
       <c r="J9">
-        <v>1.024487053994128</v>
+        <v>0.9979804123087466</v>
       </c>
       <c r="K9">
-        <v>1.035378457918984</v>
+        <v>1.045554120074546</v>
       </c>
       <c r="L9">
-        <v>1.032314558708309</v>
+        <v>1.003766569117036</v>
       </c>
       <c r="M9">
-        <v>1.041620854305389</v>
+        <v>1.010488434697607</v>
       </c>
       <c r="N9">
-        <v>1.012180669879588</v>
+        <v>1.003029834593906</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017062526554289</v>
+        <v>0.9636747028935664</v>
       </c>
       <c r="D10">
-        <v>1.031595118061086</v>
+        <v>1.029786339189438</v>
       </c>
       <c r="E10">
-        <v>1.027780502003229</v>
+        <v>0.9841207609242928</v>
       </c>
       <c r="F10">
-        <v>1.036966906323638</v>
+        <v>0.9901917217963224</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032074337206308</v>
+        <v>1.047397957376448</v>
       </c>
       <c r="J10">
-        <v>1.023527858083324</v>
+        <v>0.9934075431692565</v>
       </c>
       <c r="K10">
-        <v>1.0350565289377</v>
+        <v>1.043637841667551</v>
       </c>
       <c r="L10">
-        <v>1.031255727238729</v>
+        <v>0.9987827633823337</v>
       </c>
       <c r="M10">
-        <v>1.040409053809095</v>
+        <v>1.004740355063672</v>
       </c>
       <c r="N10">
-        <v>1.01185426684906</v>
+        <v>1.001442269333927</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016407834258291</v>
+        <v>0.9602455097337473</v>
       </c>
       <c r="D11">
-        <v>1.031331363122159</v>
+        <v>1.028373554795436</v>
       </c>
       <c r="E11">
-        <v>1.02719751604596</v>
+        <v>0.9812816041746382</v>
       </c>
       <c r="F11">
-        <v>1.036318530867864</v>
+        <v>0.9870110031570484</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032038590045243</v>
+        <v>1.046940606593302</v>
       </c>
       <c r="J11">
-        <v>1.023112684820755</v>
+        <v>0.9913710240985232</v>
       </c>
       <c r="K11">
-        <v>1.034915860819369</v>
+        <v>1.042779515927246</v>
       </c>
       <c r="L11">
-        <v>1.030797561586085</v>
+        <v>0.9965653712789649</v>
       </c>
       <c r="M11">
-        <v>1.039884453977792</v>
+        <v>1.002182101662294</v>
       </c>
       <c r="N11">
-        <v>1.011712830674984</v>
+        <v>1.000734677284389</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016164780977741</v>
+        <v>0.9589566169551524</v>
       </c>
       <c r="D12">
-        <v>1.031233343229412</v>
+        <v>1.027843804820198</v>
       </c>
       <c r="E12">
-        <v>1.026981135108032</v>
+        <v>0.9802160324049073</v>
       </c>
       <c r="F12">
-        <v>1.036077827692512</v>
+        <v>0.9858168412463313</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032025022792516</v>
+        <v>1.046766917593195</v>
       </c>
       <c r="J12">
-        <v>1.022958496437086</v>
+        <v>0.9906056332388804</v>
       </c>
       <c r="K12">
-        <v>1.034863421092832</v>
+        <v>1.042456320750196</v>
       </c>
       <c r="L12">
-        <v>1.030627426717062</v>
+        <v>0.9957323374611278</v>
       </c>
       <c r="M12">
-        <v>1.039689613111889</v>
+        <v>1.001220907899521</v>
       </c>
       <c r="N12">
-        <v>1.011660280064749</v>
+        <v>1.000468664170982</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016216910904582</v>
+        <v>0.95923378832033</v>
       </c>
       <c r="D13">
-        <v>1.031254371035287</v>
+        <v>1.027957665204931</v>
       </c>
       <c r="E13">
-        <v>1.027027542023833</v>
+        <v>0.9804451079708666</v>
       </c>
       <c r="F13">
-        <v>1.036129453331565</v>
+        <v>0.9860735788712529</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032027946085112</v>
+        <v>1.046804347856928</v>
       </c>
       <c r="J13">
-        <v>1.022991569206139</v>
+        <v>0.990770224314465</v>
       </c>
       <c r="K13">
-        <v>1.034874678134057</v>
+        <v>1.042525846574641</v>
       </c>
       <c r="L13">
-        <v>1.030663919026335</v>
+        <v>0.9959114592303004</v>
       </c>
       <c r="M13">
-        <v>1.039731406266291</v>
+        <v>1.00142759147049</v>
       </c>
       <c r="N13">
-        <v>1.011671553018747</v>
+        <v>1.000525871441186</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016387740772252</v>
+        <v>0.960139283445256</v>
       </c>
       <c r="D14">
-        <v>1.031323261765111</v>
+        <v>1.028329867750573</v>
       </c>
       <c r="E14">
-        <v>1.027179626537261</v>
+        <v>0.9811937512391751</v>
       </c>
       <c r="F14">
-        <v>1.036298631561239</v>
+        <v>0.9869125564343186</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032037474465559</v>
+        <v>1.04692632747176</v>
       </c>
       <c r="J14">
-        <v>1.023099939037726</v>
+        <v>0.991307941729228</v>
       </c>
       <c r="K14">
-        <v>1.034911529988205</v>
+        <v>1.042752890256788</v>
       </c>
       <c r="L14">
-        <v>1.030783497195301</v>
+        <v>0.9964967069836624</v>
       </c>
       <c r="M14">
-        <v>1.039868347979315</v>
+        <v>1.002102875569705</v>
       </c>
       <c r="N14">
-        <v>1.011708487127541</v>
+        <v>1.0007127543869</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016493011745933</v>
+        <v>0.9606951562468442</v>
       </c>
       <c r="D15">
-        <v>1.031365701118141</v>
+        <v>1.02855853073278</v>
       </c>
       <c r="E15">
-        <v>1.027273352855849</v>
+        <v>0.9816535416271986</v>
       </c>
       <c r="F15">
-        <v>1.036402885426508</v>
+        <v>0.9874277746787632</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03204330692505</v>
+        <v>1.047000976549189</v>
       </c>
       <c r="J15">
-        <v>1.023166712660531</v>
+        <v>0.9916380486758862</v>
       </c>
       <c r="K15">
-        <v>1.034934210591943</v>
+        <v>1.042892197084954</v>
       </c>
       <c r="L15">
-        <v>1.030857179672124</v>
+        <v>0.9968560376191142</v>
       </c>
       <c r="M15">
-        <v>1.039952724823852</v>
+        <v>1.002517473537838</v>
       </c>
       <c r="N15">
-        <v>1.011731241484159</v>
+        <v>1.000827472762863</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017105994331214</v>
+        <v>0.9639002127939278</v>
       </c>
       <c r="D16">
-        <v>1.031612615531139</v>
+        <v>1.02987940923811</v>
       </c>
       <c r="E16">
-        <v>1.027819216079842</v>
+        <v>0.98430767920393</v>
       </c>
       <c r="F16">
-        <v>1.037009955355459</v>
+        <v>0.9904010715820494</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032076669026622</v>
+        <v>1.047427779630114</v>
       </c>
       <c r="J16">
-        <v>1.0235554152974</v>
+        <v>0.993541472827015</v>
       </c>
       <c r="K16">
-        <v>1.035065837980318</v>
+        <v>1.043694197104875</v>
       </c>
       <c r="L16">
-        <v>1.031286140903085</v>
+        <v>0.9989286336593219</v>
       </c>
       <c r="M16">
-        <v>1.040443872353861</v>
+        <v>1.00490863322482</v>
       </c>
       <c r="N16">
-        <v>1.011863651391862</v>
+        <v>1.001488792270598</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017490730725385</v>
+        <v>0.9658846267568635</v>
       </c>
       <c r="D17">
-        <v>1.031767407624226</v>
+        <v>1.030699214052874</v>
       </c>
       <c r="E17">
-        <v>1.028161916284064</v>
+        <v>0.9859536189198697</v>
       </c>
       <c r="F17">
-        <v>1.037390988733577</v>
+        <v>0.9922442303868573</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032097079918186</v>
+        <v>1.047688782758287</v>
       </c>
       <c r="J17">
-        <v>1.023799282817393</v>
+        <v>0.9947200176573309</v>
       </c>
       <c r="K17">
-        <v>1.035148065275094</v>
+        <v>1.044189565778309</v>
       </c>
       <c r="L17">
-        <v>1.03155530199841</v>
+        <v>1.000212497552853</v>
       </c>
       <c r="M17">
-        <v>1.040751988585226</v>
+        <v>1.006389626773813</v>
       </c>
       <c r="N17">
-        <v>1.011946681686996</v>
+        <v>1.001898117476304</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017715223185337</v>
+        <v>0.9670329921231038</v>
       </c>
       <c r="D18">
-        <v>1.031857661772179</v>
+        <v>1.031174276414035</v>
       </c>
       <c r="E18">
-        <v>1.028361913336429</v>
+        <v>0.9869070307589157</v>
       </c>
       <c r="F18">
-        <v>1.03761332313734</v>
+        <v>0.9933116261375179</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03210879889648</v>
+        <v>1.047838619602595</v>
       </c>
       <c r="J18">
-        <v>1.023941542480422</v>
+        <v>0.995402030237421</v>
       </c>
       <c r="K18">
-        <v>1.035195904350318</v>
+        <v>1.044475755773023</v>
       </c>
       <c r="L18">
-        <v>1.031712329480447</v>
+        <v>1.000955659038025</v>
       </c>
       <c r="M18">
-        <v>1.040931718855321</v>
+        <v>1.007246817062217</v>
       </c>
       <c r="N18">
-        <v>1.011995102037021</v>
+        <v>1.00213493507996</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017791783245558</v>
+        <v>0.9674230348869939</v>
       </c>
       <c r="D19">
-        <v>1.031888430358526</v>
+        <v>1.031335735265012</v>
       </c>
       <c r="E19">
-        <v>1.028430125078211</v>
+        <v>0.9872310108714498</v>
       </c>
       <c r="F19">
-        <v>1.03768914764604</v>
+        <v>0.9936742957915737</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032112763129473</v>
+        <v>1.0478893045017</v>
       </c>
       <c r="J19">
-        <v>1.023990052019513</v>
+        <v>0.9956336741940646</v>
       </c>
       <c r="K19">
-        <v>1.035212195375624</v>
+        <v>1.044572875133737</v>
       </c>
       <c r="L19">
-        <v>1.031765876918391</v>
+        <v>1.001208105897402</v>
       </c>
       <c r="M19">
-        <v>1.04099300411126</v>
+        <v>1.007537984740219</v>
       </c>
       <c r="N19">
-        <v>1.012011610449941</v>
+        <v>1.002215360022</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017449443642293</v>
+        <v>0.9656726661769343</v>
       </c>
       <c r="D20">
-        <v>1.031750803342004</v>
+        <v>1.030611579857529</v>
       </c>
       <c r="E20">
-        <v>1.028125136841775</v>
+        <v>0.9857777157431448</v>
       </c>
       <c r="F20">
-        <v>1.037350098751992</v>
+        <v>0.9920472766643081</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032094909291128</v>
+        <v>1.047661028461958</v>
       </c>
       <c r="J20">
-        <v>1.023773116494567</v>
+        <v>0.9945941340152752</v>
       </c>
       <c r="K20">
-        <v>1.035139255746011</v>
+        <v>1.044136702457094</v>
       </c>
       <c r="L20">
-        <v>1.031526420412638</v>
+        <v>1.000075343458292</v>
       </c>
       <c r="M20">
-        <v>1.040718929453774</v>
+        <v>1.006231421571747</v>
       </c>
       <c r="N20">
-        <v>1.011937774335059</v>
+        <v>1.001854401953044</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016337432080374</v>
+        <v>0.9598730627848154</v>
       </c>
       <c r="D21">
-        <v>1.031302976512071</v>
+        <v>1.028220401772698</v>
       </c>
       <c r="E21">
-        <v>1.027134836847198</v>
+        <v>0.9809736025204423</v>
       </c>
       <c r="F21">
-        <v>1.036248809125791</v>
+        <v>0.9866658545914699</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032034676570127</v>
+        <v>1.046890513167547</v>
       </c>
       <c r="J21">
-        <v>1.023068026115326</v>
+        <v>0.9911498479031977</v>
       </c>
       <c r="K21">
-        <v>1.034900683249211</v>
+        <v>1.042686153011263</v>
       </c>
       <c r="L21">
-        <v>1.030748283065862</v>
+        <v>0.9963246294655156</v>
       </c>
       <c r="M21">
-        <v>1.039828021527693</v>
+        <v>1.001904327831014</v>
       </c>
       <c r="N21">
-        <v>1.011697611362189</v>
+        <v>1.000657811131949</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015639010498192</v>
+        <v>0.9561385671268168</v>
       </c>
       <c r="D22">
-        <v>1.031021124371151</v>
+        <v>1.026688105215297</v>
       </c>
       <c r="E22">
-        <v>1.026513156935678</v>
+        <v>0.9778892046745911</v>
       </c>
       <c r="F22">
-        <v>1.035557150928808</v>
+        <v>0.983208494184556</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031995133291246</v>
+        <v>1.046383990765585</v>
       </c>
       <c r="J22">
-        <v>1.022624855401611</v>
+        <v>0.9889323302052752</v>
       </c>
       <c r="K22">
-        <v>1.034749588660972</v>
+        <v>1.041748778859346</v>
       </c>
       <c r="L22">
-        <v>1.030259316849959</v>
+        <v>0.9939117853368227</v>
       </c>
       <c r="M22">
-        <v>1.039267982108155</v>
+        <v>0.9991200981052382</v>
       </c>
       <c r="N22">
-        <v>1.011546525224518</v>
+        <v>0.9998869737653896</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016009186282954</v>
+        <v>0.9581269439221096</v>
       </c>
       <c r="D23">
-        <v>1.031170565835241</v>
+        <v>1.027503180866518</v>
       </c>
       <c r="E23">
-        <v>1.026842629755884</v>
+        <v>0.9795305614043155</v>
       </c>
       <c r="F23">
-        <v>1.03592373896114</v>
+        <v>0.9850485382499156</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032016254170834</v>
+        <v>1.046654621490618</v>
       </c>
       <c r="J23">
-        <v>1.022859774364986</v>
+        <v>0.9901129651263588</v>
       </c>
       <c r="K23">
-        <v>1.034829789986848</v>
+        <v>1.042248131261105</v>
       </c>
       <c r="L23">
-        <v>1.03051850029545</v>
+        <v>0.9951962250635827</v>
       </c>
       <c r="M23">
-        <v>1.039564858805098</v>
+        <v>1.000602289052816</v>
       </c>
       <c r="N23">
-        <v>1.011626626899117</v>
+        <v>1.000297415951453</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017468099243855</v>
+        <v>0.9657684701283133</v>
       </c>
       <c r="D24">
-        <v>1.031758306206106</v>
+        <v>1.030651187599707</v>
       </c>
       <c r="E24">
-        <v>1.028141755561706</v>
+        <v>0.9858572192849174</v>
       </c>
       <c r="F24">
-        <v>1.037368574914868</v>
+        <v>0.9921362952830082</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032095890679959</v>
+        <v>1.047673576851892</v>
       </c>
       <c r="J24">
-        <v>1.023784939880549</v>
+        <v>0.9946510321079673</v>
       </c>
       <c r="K24">
-        <v>1.035143236772371</v>
+        <v>1.044160597609622</v>
       </c>
       <c r="L24">
-        <v>1.031539470664274</v>
+        <v>1.000137335053352</v>
       </c>
       <c r="M24">
-        <v>1.040733867417468</v>
+        <v>1.006302928198892</v>
       </c>
       <c r="N24">
-        <v>1.011941799214343</v>
+        <v>1.001874161084537</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019164310461786</v>
+        <v>0.9742812146637616</v>
       </c>
       <c r="D25">
-        <v>1.03243902517613</v>
+        <v>1.034182398465997</v>
       </c>
       <c r="E25">
-        <v>1.029653465856748</v>
+        <v>0.9929403419643088</v>
       </c>
       <c r="F25">
-        <v>1.039048520278525</v>
+        <v>1.000061639201387</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032180990974834</v>
+        <v>1.048761981598776</v>
       </c>
       <c r="J25">
-        <v>1.024859162826588</v>
+        <v>0.9997062386448236</v>
       </c>
       <c r="K25">
-        <v>1.035502154646068</v>
+        <v>1.04627227824848</v>
       </c>
       <c r="L25">
-        <v>1.032725438074517</v>
+        <v>1.005649247606716</v>
       </c>
       <c r="M25">
-        <v>1.042090875261709</v>
+        <v>1.012658998375974</v>
       </c>
       <c r="N25">
-        <v>1.012307152852026</v>
+        <v>1.003628437479128</v>
       </c>
     </row>
   </sheetData>
